--- a/dados/historico/times/rodada_26/Atletico Mineiro.xlsx
+++ b/dados/historico/times/rodada_26/Atletico Mineiro.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,10 +729,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Matchweek 1</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -900,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -917,10 +915,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Matchweek 3</t>
-        </is>
+      <c r="E3" t="n">
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1105,10 +1101,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matchweek 6</t>
-        </is>
+      <c r="E4" t="n">
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1293,10 +1287,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matchweek 8</t>
-        </is>
+      <c r="E5" t="n">
+        <v>8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1481,10 +1473,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Matchweek 10</t>
-        </is>
+      <c r="E6" t="n">
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1669,10 +1659,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Matchweek 13</t>
-        </is>
+      <c r="E7" t="n">
+        <v>13</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1857,10 +1845,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Matchweek 14</t>
-        </is>
+      <c r="E8" t="n">
+        <v>14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2026,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2043,10 +2029,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Matchweek 17</t>
-        </is>
+      <c r="E9" t="n">
+        <v>17</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2212,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2229,10 +2213,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Matchweek 19</t>
-        </is>
+      <c r="E10" t="n">
+        <v>19</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2398,7 +2380,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2415,10 +2397,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Matchweek 21</t>
-        </is>
+      <c r="E11" t="n">
+        <v>21</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2582,7 +2562,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2599,10 +2579,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Matchweek 23</t>
-        </is>
+      <c r="E12" t="n">
+        <v>23</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2766,7 +2744,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2783,10 +2761,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matchweek 24</t>
-        </is>
+      <c r="E13" t="n">
+        <v>24</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2952,7 +2928,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2969,10 +2945,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matchweek 26</t>
-        </is>
+      <c r="E14" t="n">
+        <v>26</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3138,7 +3112,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3155,10 +3129,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Matchweek 4</t>
-        </is>
+      <c r="E15" t="n">
+        <v>4</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3326,7 +3298,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3343,10 +3315,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Matchweek 16</t>
-        </is>
+      <c r="E16" t="n">
+        <v>16</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3514,7 +3484,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3531,10 +3501,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Matchweek 12</t>
-        </is>
+      <c r="E17" t="n">
+        <v>12</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3702,7 +3670,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3719,10 +3687,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Matchweek 11</t>
-        </is>
+      <c r="E18" t="n">
+        <v>11</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3890,7 +3856,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3907,10 +3873,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Matchweek 22</t>
-        </is>
+      <c r="E19" t="n">
+        <v>22</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4076,7 +4040,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4093,10 +4057,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Matchweek 18</t>
-        </is>
+      <c r="E20" t="n">
+        <v>18</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4264,7 +4226,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4281,10 +4243,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Matchweek 5</t>
-        </is>
+      <c r="E21" t="n">
+        <v>5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4452,7 +4412,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4469,10 +4429,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Matchweek 25</t>
-        </is>
+      <c r="E22" t="n">
+        <v>25</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4638,16 +4596,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2023-06-03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4655,14 +4613,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Matchweek 2</t>
-        </is>
+      <c r="E23" t="n">
+        <v>9</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4672,14 +4628,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -4687,25 +4643,25 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="M23" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="N23" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="O23" t="n">
-        <v>11233</v>
+        <v>34344</v>
       </c>
       <c r="P23" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>16.7</v>
+        <v>26.3</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -4714,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -4723,40 +4679,40 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.8</v>
+        <v>-1.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.8</v>
+        <v>-1.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD23" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>4799</v>
+        <v>7861</v>
       </c>
       <c r="AI23" t="n">
-        <v>2012</v>
+        <v>2981</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
@@ -4765,77 +4721,77 @@
         <v>0.9</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AM23" t="n">
         <v>12</v>
       </c>
       <c r="AN23" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="AO23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS23" t="n">
         <v>4</v>
       </c>
       <c r="AT23" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AU23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AW23" t="n">
         <v>0</v>
       </c>
       <c r="AX23" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AY23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB23" t="n">
         <v>12</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>13</v>
-      </c>
       <c r="BC23" t="n">
         <v>0</v>
       </c>
       <c r="BD23" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-06-03</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4843,14 +4799,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Matchweek 9</t>
-        </is>
+      <c r="E24" t="n">
+        <v>2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4860,14 +4814,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -4875,76 +4829,76 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="N24" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="O24" t="n">
-        <v>34344</v>
+        <v>11233</v>
       </c>
       <c r="P24" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AB24" t="n">
         <v>5</v>
       </c>
-      <c r="R24" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>3</v>
-      </c>
       <c r="AC24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AH24" t="n">
-        <v>7861</v>
+        <v>4799</v>
       </c>
       <c r="AI24" t="n">
-        <v>2981</v>
+        <v>2012</v>
       </c>
       <c r="AJ24" t="n">
         <v>0</v>
@@ -4953,68 +4907,68 @@
         <v>0.9</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AM24" t="n">
         <v>12</v>
       </c>
       <c r="AN24" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AP24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS24" t="n">
         <v>4</v>
       </c>
       <c r="AT24" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC24" t="n">
         <v>0</v>
       </c>
       <c r="BD24" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5031,10 +4985,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Matchweek 20</t>
-        </is>
+      <c r="E25" t="n">
+        <v>20</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5202,7 +5154,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5219,10 +5171,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Matchweek 15</t>
-        </is>
+      <c r="E26" t="n">
+        <v>15</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5388,7 +5338,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5405,10 +5355,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Matchweek 7</t>
-        </is>
+      <c r="E27" t="n">
+        <v>7</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/dados/historico/times/rodada_26/Atletico Mineiro.xlsx
+++ b/dados/historico/times/rodada_26/Atletico Mineiro.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>35</v>
+        <v>310</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3</v>
+        <v>365</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
